--- a/other/配置表/d-地图配置表.xlsx
+++ b/other/配置表/d-地图配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12795"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>出怪y轴区间</t>
-  </si>
-  <si>
-    <t>最终立足点Y轴基准</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+  <si>
+    <t>resouce</t>
+  </si>
+  <si>
+    <t>y_random</t>
+  </si>
+  <si>
+    <t>y_base</t>
+  </si>
+  <si>
+    <t>map_01</t>
+  </si>
+  <si>
+    <t>-5.9,-1.9</t>
+  </si>
+  <si>
+    <t>map_02</t>
+  </si>
+  <si>
+    <t>-5.7,-2</t>
+  </si>
+  <si>
+    <t>map_03</t>
+  </si>
+  <si>
+    <t>-5,-2</t>
+  </si>
+  <si>
+    <t>map_04</t>
+  </si>
+  <si>
+    <t>-5,-2.7</t>
+  </si>
+  <si>
+    <t>map_05</t>
+  </si>
+  <si>
+    <t>-5,-2.9</t>
+  </si>
+  <si>
+    <t>map_06</t>
+  </si>
+  <si>
+    <t>-5.5,-2.5</t>
+  </si>
+  <si>
+    <t>map_07</t>
+  </si>
+  <si>
+    <t>map_08</t>
+  </si>
+  <si>
+    <t>-5.26,-1.44</t>
+  </si>
+  <si>
+    <t>map_09</t>
+  </si>
+  <si>
+    <t>map_10</t>
+  </si>
+  <si>
+    <t>map_11</t>
+  </si>
+  <si>
+    <t>-3.0,-0.4</t>
+  </si>
+  <si>
+    <t>map_12</t>
+  </si>
+  <si>
+    <t>-4,-1.66</t>
+  </si>
+  <si>
+    <t>map_13</t>
+  </si>
+  <si>
+    <t>-5.5,-2.87</t>
+  </si>
+  <si>
+    <t>map_14</t>
+  </si>
+  <si>
+    <t>map_15</t>
+  </si>
+  <si>
+    <t>-5,-2.5</t>
+  </si>
+  <si>
+    <t>map_16</t>
+  </si>
+  <si>
+    <t>-5.5,-1.83</t>
+  </si>
+  <si>
+    <t>map_17</t>
+  </si>
+  <si>
+    <t>map_18</t>
+  </si>
+  <si>
+    <t>-5.5,-3</t>
+  </si>
+  <si>
+    <t>map_19</t>
+  </si>
+  <si>
+    <t>map_20</t>
+  </si>
+  <si>
+    <t>-4.8,-0.99</t>
+  </si>
+  <si>
+    <t>map_21</t>
+  </si>
+  <si>
+    <t>-4.84,-1.99</t>
   </si>
 </sst>
 </file>
@@ -35,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +154,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -57,43 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +277,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,59 +297,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -209,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,36 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -440,15 +508,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +530,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,158 +574,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,19 +1103,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1125,236 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>-3.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>-4.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>-4.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>-2.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>-4.31</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-地图配置表.xlsx
+++ b/other/配置表/d-地图配置表.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>resouce</t>
   </si>
   <si>
-    <t>y_random</t>
+    <t>y_min</t>
+  </si>
+  <si>
+    <t>y_max</t>
   </si>
   <si>
     <t>y_base</t>
@@ -30,48 +33,27 @@
     <t>map_01</t>
   </si>
   <si>
-    <t>-5.9,-1.9</t>
-  </si>
-  <si>
     <t>map_02</t>
   </si>
   <si>
-    <t>-5.7,-2</t>
-  </si>
-  <si>
     <t>map_03</t>
   </si>
   <si>
-    <t>-5,-2</t>
-  </si>
-  <si>
     <t>map_04</t>
   </si>
   <si>
-    <t>-5,-2.7</t>
-  </si>
-  <si>
     <t>map_05</t>
   </si>
   <si>
-    <t>-5,-2.9</t>
-  </si>
-  <si>
     <t>map_06</t>
   </si>
   <si>
-    <t>-5.5,-2.5</t>
-  </si>
-  <si>
     <t>map_07</t>
   </si>
   <si>
     <t>map_08</t>
   </si>
   <si>
-    <t>-5.26,-1.44</t>
-  </si>
-  <si>
     <t>map_09</t>
   </si>
   <si>
@@ -81,58 +63,34 @@
     <t>map_11</t>
   </si>
   <si>
-    <t>-3.0,-0.4</t>
-  </si>
-  <si>
     <t>map_12</t>
   </si>
   <si>
-    <t>-4,-1.66</t>
-  </si>
-  <si>
     <t>map_13</t>
   </si>
   <si>
-    <t>-5.5,-2.87</t>
-  </si>
-  <si>
     <t>map_14</t>
   </si>
   <si>
     <t>map_15</t>
   </si>
   <si>
-    <t>-5,-2.5</t>
-  </si>
-  <si>
     <t>map_16</t>
   </si>
   <si>
-    <t>-5.5,-1.83</t>
-  </si>
-  <si>
     <t>map_17</t>
   </si>
   <si>
     <t>map_18</t>
   </si>
   <si>
-    <t>-5.5,-3</t>
-  </si>
-  <si>
     <t>map_19</t>
   </si>
   <si>
     <t>map_20</t>
   </si>
   <si>
-    <t>-4.8,-0.99</t>
-  </si>
-  <si>
     <t>map_21</t>
-  </si>
-  <si>
-    <t>-4.84,-1.99</t>
   </si>
 </sst>
 </file>
@@ -140,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -178,43 +136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +158,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,17 +226,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,181 +265,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,54 +465,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -579,7 +489,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,153 +564,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,19 +1058,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375"/>
+    <col min="6" max="6" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1125,236 +1082,302 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>-3.31</v>
+      </c>
       <c r="C2">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.97</v>
+      </c>
+      <c r="D2">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3">
+        <v>-3.5</v>
+      </c>
+      <c r="C3">
+        <v>-0.98</v>
+      </c>
+      <c r="D3">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>-3.11</v>
+      </c>
+      <c r="C4">
+        <v>-1.09</v>
+      </c>
+      <c r="D4">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5">
+        <v>-3.46</v>
+      </c>
+      <c r="C5">
+        <v>-1.64</v>
+      </c>
+      <c r="D5">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>-3.57</v>
+      </c>
+      <c r="C6">
+        <v>-1.91</v>
+      </c>
+      <c r="D6">
+        <v>-2.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7">
+        <v>-3.57</v>
+      </c>
+      <c r="C7">
+        <v>-1.76</v>
+      </c>
+      <c r="D7">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>-3.57</v>
+      </c>
+      <c r="C8">
+        <v>-1.56</v>
+      </c>
+      <c r="D8">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9">
+        <v>-3.19</v>
+      </c>
+      <c r="C9">
+        <v>-0.9</v>
+      </c>
+      <c r="D9">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B10">
+        <v>-3.19</v>
+      </c>
+      <c r="C10">
+        <v>-0.9</v>
+      </c>
+      <c r="D10">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11">
+        <v>-3.22</v>
+      </c>
+      <c r="C11">
+        <v>-1.72</v>
+      </c>
+      <c r="D11">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>-2.18</v>
+      </c>
+      <c r="C12">
+        <v>-0.51</v>
+      </c>
+      <c r="D12">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B13">
+        <v>-2.6</v>
+      </c>
+      <c r="C13">
+        <v>-1.18</v>
+      </c>
+      <c r="D13">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14">
+        <v>-3.32</v>
+      </c>
+      <c r="C14">
+        <v>-1.7</v>
+      </c>
+      <c r="D14">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B15">
+        <v>-3.32</v>
+      </c>
+      <c r="C15">
+        <v>-1.29</v>
+      </c>
+      <c r="D15">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B16">
+        <v>-3.38</v>
+      </c>
+      <c r="C16">
+        <v>-1.49</v>
+      </c>
+      <c r="D16">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B17">
+        <v>-3.57</v>
+      </c>
+      <c r="C17">
+        <v>-1.35</v>
+      </c>
+      <c r="D17">
+        <v>-2.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B18">
+        <v>-3.57</v>
+      </c>
+      <c r="C18">
+        <v>-1.35</v>
+      </c>
+      <c r="D18">
+        <v>-2.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B19">
+        <v>-3.57</v>
+      </c>
+      <c r="C19">
+        <v>-1.89</v>
+      </c>
+      <c r="D19">
+        <v>-2.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20">
+        <v>-3.57</v>
+      </c>
+      <c r="C20">
+        <v>-2.09</v>
+      </c>
+      <c r="D20">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
-        <v>-3.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B21">
+        <v>-3.57</v>
+      </c>
+      <c r="C21">
+        <v>-0.58</v>
+      </c>
+      <c r="D21">
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>-4.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>-4.43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>-4.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>-4.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>-4.46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>-4.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21">
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
+      <c r="B22">
+        <v>-3.57</v>
       </c>
       <c r="C22">
-        <v>-4.31</v>
+        <v>-1.36</v>
+      </c>
+      <c r="D22">
+        <v>-2.69</v>
       </c>
     </row>
   </sheetData>
